--- a/data/trans_camb/P16A04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 2,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 0,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 4,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 4,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 2,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 2,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 2,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 0,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 2,44</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>117,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,28%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,7; 213,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 53,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 450,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,78; 545,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,62; 331,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,71; 348,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,36; 204,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,38; 86,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,0; 205,31</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 3,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,82; 4,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 2,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 4,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 1,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 1,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 3,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 2,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 1,39</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>208,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>247,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,7; 744,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,94; 993,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-99,99; 483,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,83; 242,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,51; 108,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,97; 107,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,74; 264,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 186,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,99; 108,14</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 3,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 2,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 3,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 2,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 1,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 2,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 2,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 1,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 2,32</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>199,63%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>188,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>219,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,04%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,8%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 861,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,0; 844,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,52; 1035,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,19; 169,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,79; 131,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,13; 175,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,18; 217,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,13; 203,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 223,53</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 2,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 1,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 2,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 1,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 0,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 6,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 1,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 0,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 3,8</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,78%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>169,01%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,12%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>114,45%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,98; 241,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,5; 244,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,12; 350,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,7; 248,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,11; 87,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,0; 799,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,48; 165,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,28; 93,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,58; 355,09</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; 2,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 1,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 0,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 1,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 3,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 3,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,01; 1,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 1,53</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 1,66</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,61%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,62%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,37%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,08%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,54%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,09%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,44%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,31%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,73; 119,96</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,06; 54,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,26; 50,05</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,85; 146,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,43; 290,58</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,06; 286,63</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,11; 65,98</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,82; 75,93</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,65; 92,38</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 4,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; 0,35</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,84; 1,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 1,83</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,28; 1,2</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 2,14</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 2,21</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; 0,25</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 1,2</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,57%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,5%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,64%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,32%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,28%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,21%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,3; 194,83</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,77; 25,25</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,84; 49,42</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,74; 87,57</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,83; 60,41</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,85; 101,85</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,12; 87,42</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,69; 10,78</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,13; 48,88</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 1,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 0,92</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 1,31</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 1,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 0,81</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 1,95</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 1,44</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 0,65</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 1,32</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,23%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,7%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,64%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,59%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,66; 117,55</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,8; 61,16</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,21; 87,03</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 81,2</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,23; 42,96</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,02; 103,21</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,56; 81,36</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,44; 36,41</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,19; 73,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 4,02</t>
+          <t>-1,92; 3,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,85</t>
+          <t>-1,16; 3,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,44</t>
+          <t>-1,0; 2,51</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>44,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>23,21%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 450,44</t>
+          <t>-100,0; 362,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-68,71; 348,94</t>
+          <t>-65,0; 434,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-57,0; 205,31</t>
+          <t>-54,21; 204,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,27</t>
+          <t>-1,02; 2,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,69</t>
+          <t>-2,45; 1,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,39</t>
+          <t>-1,16; 1,19</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,65%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,94%</t>
+          <t>-17,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>-5,46%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-99,99; 483,59</t>
+          <t>-100,0; 494,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,97; 107,16</t>
+          <t>-68,89; 78,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-51,99; 108,14</t>
+          <t>-56,11; 91,33</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,55</t>
+          <t>0,35; 3,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,32</t>
+          <t>-1,01; 2,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,32</t>
+          <t>0,11; 2,33</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>219,28%</t>
+          <t>216,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>38,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>82,8%</t>
+          <t>84,11%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,52; 1035,31</t>
+          <t>1,91; 1037,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,13; 175,24</t>
+          <t>-38,88; 181,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 223,53</t>
+          <t>-0,28; 226,67</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,21</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 2,79</t>
+          <t>-1,63; 2,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,14</t>
+          <t>0,46; 4,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,8</t>
+          <t>-0,2; 2,74</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>169,01%</t>
+          <t>148,7%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>114,45%</t>
+          <t>80,71%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,12; 350,53</t>
+          <t>-59,31; 248,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,0; 799,54</t>
+          <t>9,15; 620,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,58; 355,09</t>
+          <t>-10,11; 274,13</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,99</t>
+          <t>-3,03; 1,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,39</t>
+          <t>-0,68; 3,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,66</t>
+          <t>-1,17; 1,7</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-25,37%</t>
+          <t>-23,99%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>68,09%</t>
+          <t>69,08%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>14,3%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-66,26; 50,05</t>
+          <t>-65,43; 53,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 286,63</t>
+          <t>-20,81; 287,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-30,65; 92,38</t>
+          <t>-30,65; 93,57</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,58</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,59</t>
+          <t>-0,92; 6,64</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,35</t>
+          <t>-3,09; 2,11</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 1,01</t>
+          <t>-3,02; 1,56</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,83</t>
+          <t>-2,78; 2,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,2</t>
+          <t>-3,13; 1,87</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,14</t>
+          <t>-3,9; 1,19</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,21</t>
+          <t>-1,25; 3,42</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,25</t>
+          <t>-2,3; 1,34</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,2</t>
+          <t>-2,71; 0,82</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-46,5%</t>
+          <t>-11,4%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-20,64%</t>
+          <t>-15,79%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>-6,29%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-20,32%</t>
+          <t>-19,84%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>-21,2%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>38,12%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-32,28%</t>
+          <t>-15,7%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>-19,5%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-27,3; 194,83</t>
+          <t>-33,61; 335,35</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-75,77; 25,25</t>
+          <t>-70,19; 129,48</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-57,84; 49,42</t>
+          <t>-66,03; 96,35</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-46,74; 87,57</t>
+          <t>-67,4; 166,24</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-59,83; 60,41</t>
+          <t>-76,19; 102,63</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,85; 101,85</t>
+          <t>-82,32; 59,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-23,12; 87,42</t>
+          <t>-34,37; 147,16</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-61,69; 10,78</t>
+          <t>-59,03; 66,26</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-33,13; 48,88</t>
+          <t>-65,8; 35,4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,35</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,81</t>
+          <t>-4,06; 3,93</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 0,92</t>
+          <t>-6,81; -0,99</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,31</t>
+          <t>-4,82; 1,8</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,47</t>
+          <t>-2,47; 2,79</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,81</t>
+          <t>-3,56; 1,84</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,95</t>
+          <t>-1,6; 3,63</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,44</t>
+          <t>-2,05; 2,52</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 0,65</t>
+          <t>-3,79; 0,39</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,32</t>
+          <t>-1,78; 2,23</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>58,23%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>-83,33%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>-24,8%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>-21,08%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>45,64%</t>
+          <t>37,21%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>41,9%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>-48,07%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>10,01%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-69,98; 205,83</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -0,19</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-71,93; 110,82</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-53,89; 171,39</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-72,41; 105,28</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-35,19; 209,9</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-46,5; 120,55</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-77,74; 29,32</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-36,02; 103,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 1,81</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 0,92</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 1,18</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 1,47</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 0,81</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 1,71</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 1,44</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 0,65</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 1,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>58,23%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>13,73%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>21,41%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>29,09%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>37,93%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>41,9%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>30,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>13,66; 117,55</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-19,8; 61,16</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-8,21; 87,03</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-18,02; 79,48</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-2,11; 81,2</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-28,23; 42,96</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>8,02; 103,21</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 91,75</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>13,56; 81,36</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-16,44; 36,41</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>9,19; 73,45</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>1,85; 64,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P16A04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,06</t>
+          <t>-1,63; 2,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,29</t>
+          <t>-2,89; 0,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 3,38</t>
+          <t>-1,72; 3,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 4,29</t>
+          <t>0,15; 4,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,77</t>
+          <t>-0,77; 3,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 3,74</t>
+          <t>-1,06; 3,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,33</t>
+          <t>-0,18; 2,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,97</t>
+          <t>-1,35; 1,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,51</t>
+          <t>-0,99; 2,75</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-66,7; 213,91</t>
+          <t>-61,58; 234,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 53,52</t>
+          <t>-100,0; 70,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 362,68</t>
+          <t>-100,0; 443,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 545,9</t>
+          <t>-4,72; 461,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,62; 331,03</t>
+          <t>-39,16; 347,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-65,0; 434,59</t>
+          <t>-59,38; 423,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 204,25</t>
+          <t>-10,4; 231,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-57,38; 86,87</t>
+          <t>-60,3; 90,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-54,21; 204,28</t>
+          <t>-50,92; 220,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,38</t>
+          <t>0,45; 3,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,1</t>
+          <t>0,86; 4,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,33</t>
+          <t>-0,95; 2,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 4,34</t>
+          <t>-0,23; 4,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,81</t>
+          <t>-1,72; 1,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,34</t>
+          <t>-2,33; 1,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,17</t>
+          <t>0,68; 3,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 2,31</t>
+          <t>-0,02; 2,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,19</t>
+          <t>-1,17; 1,23</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,7; 744,62</t>
+          <t>15,46; 807,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,94; 993,65</t>
+          <t>39,97; 862,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 494,26</t>
+          <t>-96,75; 495,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 242,38</t>
+          <t>-11,99; 232,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,51; 108,54</t>
+          <t>-51,58; 97,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,89; 78,09</t>
+          <t>-66,26; 75,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,74; 264,16</t>
+          <t>30,35; 259,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 186,18</t>
+          <t>-3,08; 185,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-56,11; 91,33</t>
+          <t>-56,83; 99,42</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,16</t>
+          <t>0,29; 2,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,88</t>
+          <t>0,26; 3,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,53</t>
+          <t>0,33; 3,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 2,27</t>
+          <t>-1,13; 2,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,77</t>
+          <t>-1,41; 1,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,4</t>
+          <t>-0,7; 2,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,19</t>
+          <t>-0,03; 2,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,87</t>
+          <t>-0,34; 1,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 2,33</t>
+          <t>0,04; 2,27</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 861,41</t>
+          <t>3,42; 919,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 844,54</t>
+          <t>3,29; 1074,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,91; 1037,33</t>
+          <t>21,04; 1166,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,19; 169,28</t>
+          <t>-42,41; 154,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,79; 131,48</t>
+          <t>-51,64; 145,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,88; 181,72</t>
+          <t>-29,06; 210,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 217,05</t>
+          <t>-5,08; 229,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 203,07</t>
+          <t>-20,34; 184,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 226,67</t>
+          <t>-0,1; 228,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,07</t>
+          <t>-1,11; 2,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,77</t>
+          <t>-1,41; 1,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,31</t>
+          <t>-1,58; 2,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,67</t>
+          <t>-1,33; 1,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 0,48</t>
+          <t>-2,04; 0,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,86</t>
+          <t>0,42; 4,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,49</t>
+          <t>-0,86; 1,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 0,82</t>
+          <t>-1,21; 0,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,74</t>
+          <t>-0,27; 2,49</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,98; 241,93</t>
+          <t>-53,98; 315,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-60,5; 244,25</t>
+          <t>-61,13; 227,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-59,31; 248,94</t>
+          <t>-58,61; 230,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-62,7; 248,76</t>
+          <t>-64,8; 225,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-88,11; 87,46</t>
+          <t>-88,31; 151,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,15; 620,14</t>
+          <t>6,18; 614,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,48; 165,13</t>
+          <t>-42,07; 144,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-55,28; 93,06</t>
+          <t>-58,74; 91,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 274,13</t>
+          <t>-13,55; 230,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 2,43</t>
+          <t>-2,68; 2,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 1,02</t>
+          <t>-3,63; 0,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 1,03</t>
+          <t>-3,15; 1,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,58</t>
+          <t>-2,29; 1,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,5</t>
+          <t>-1,06; 3,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,43</t>
+          <t>-0,46; 3,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 1,28</t>
+          <t>-1,87; 1,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 1,53</t>
+          <t>-1,56; 1,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,7</t>
+          <t>-1,12; 1,73</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-61,73; 119,96</t>
+          <t>-61,74; 115,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-75,06; 54,92</t>
+          <t>-74,8; 49,97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-65,43; 53,15</t>
+          <t>-65,98; 58,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-69,85; 146,6</t>
+          <t>-72,03; 133,83</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 290,58</t>
+          <t>-36,79; 266,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,81; 287,51</t>
+          <t>-18,73; 287,87</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-56,11; 65,98</t>
+          <t>-52,93; 78,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-47,82; 75,93</t>
+          <t>-42,58; 85,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-30,65; 93,57</t>
+          <t>-29,32; 96,51</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 6,64</t>
+          <t>-0,69; 7,42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,11</t>
+          <t>-2,81; 2,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,56</t>
+          <t>-3,08; 1,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 2,43</t>
+          <t>-2,72; 2,2</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 1,87</t>
+          <t>-2,77; 1,71</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,19</t>
+          <t>-3,36; 1,4</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 3,42</t>
+          <t>-0,96; 3,47</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,34</t>
+          <t>-2,27; 1,48</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 0,82</t>
+          <t>-2,49; 1,06</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 335,35</t>
+          <t>-26,23; 403,6</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-70,19; 129,48</t>
+          <t>-67,8; 161,38</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-66,03; 96,35</t>
+          <t>-63,04; 112,93</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-67,4; 166,24</t>
+          <t>-66,36; 130,48</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-76,19; 102,63</t>
+          <t>-71,31; 120,62</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-82,32; 59,0</t>
+          <t>-75,28; 65,35</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-34,37; 147,16</t>
+          <t>-27,39; 175,12</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-59,03; 66,26</t>
+          <t>-60,93; 68,89</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-65,8; 35,4</t>
+          <t>-61,76; 46,84</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 3,93</t>
+          <t>-3,44; 4,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -0,99</t>
+          <t>-7,14; -1,02</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 1,8</t>
+          <t>-4,38; 1,67</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,79</t>
+          <t>-2,7; 2,98</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 1,84</t>
+          <t>-3,47; 1,9</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 3,63</t>
+          <t>-1,91; 3,66</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,52</t>
+          <t>-2,08; 2,42</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,39</t>
+          <t>-3,71; 0,3</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,23</t>
+          <t>-1,91; 2,19</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-69,98; 205,83</t>
+          <t>-65,03; 208,79</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -0,19</t>
+          <t>-100,0; -23,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-71,93; 110,82</t>
+          <t>-70,4; 95,53</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-53,89; 171,39</t>
+          <t>-58,91; 170,65</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-72,41; 105,28</t>
+          <t>-71,32; 108,38</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 209,9</t>
+          <t>-36,74; 209,97</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-46,5; 120,55</t>
+          <t>-47,33; 109,6</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-77,74; 29,32</t>
+          <t>-77,67; 28,41</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-36,02; 103,8</t>
+          <t>-38,33; 106,81</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,81</t>
+          <t>0,25; 1,9</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 0,92</t>
+          <t>-0,47; 0,92</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,18</t>
+          <t>-0,41; 1,1</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,47</t>
+          <t>-0,15; 1,35</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,81</t>
+          <t>-0,75; 0,76</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 1,71</t>
+          <t>0,01; 1,65</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,44</t>
+          <t>0,31; 1,41</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 0,65</t>
+          <t>-0,41; 0,63</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,04; 1,13</t>
+          <t>0,07; 1,16</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>13,66; 117,55</t>
+          <t>11,46; 130,47</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 61,16</t>
+          <t>-22,72; 60,72</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 79,48</t>
+          <t>-18,64; 74,33</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 81,2</t>
+          <t>-6,11; 71,1</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 42,96</t>
+          <t>-28,31; 39,9</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 91,75</t>
+          <t>0,17; 86,98</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>13,56; 81,36</t>
+          <t>13,9; 80,93</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 36,41</t>
+          <t>-18,29; 36,03</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>1,85; 64,01</t>
+          <t>3,02; 65,44</t>
         </is>
       </c>
     </row>
